--- a/data/input/tasklist/tasklist.xlsx
+++ b/data/input/tasklist/tasklist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,113 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>你收到了一封信，没有寄件人姓名。信封里只有一张来返双程列车票。车票上印着一句话：想要开启一段精彩的人生吗？你不爱出远门，有些不屑，但是临开车的两天，你还是捡起了那张车票，心底的声音催促你去。你收拾好了行李，上了那趟列车，列车编号：B612特快。是你从未在车站乘坐过的班次。看起来像那种行驶了几十年的绿皮火车。你拥有了一个编号，知道了这趟列车真正的名字——深渊列车。现在开始，严格遵守列车条款，首先，不要在列车内伤害其他玩家。因为你的冷静，引起了一个男人的注意，他说你是资优者，给你的判分为A，希望你同他组队，他自称有两次列车发车经验，你的选择是？</t>
+          <t>地狱十八层。昏暗的空间，头顶上飘着一层血云，将整个世界都映成一片血色。唰唰唰…
+        十八层尽头，一位看上去毫不起眼的阴差，手中拿着扫把，清扫着地上的枯草与杂物。
+        阴差是个青年的模样，看上去二十七八岁，剑眉星目，轮廓棱角分明。
+        一看就知道，活着的时候，是个靠脸吃饭的帅小伙。
+        在地狱十八层，关押着许多强大的阴魂。
+        有些阴魂高达几百丈，甚至上千丈。
+        从远处看去，竟然与天地连接在一起。
+        “这道阴魂旁边是个签到的好地方。”
+        青年嘴中嘟囔了一句，手中拿着扫把，向着那尊高达千丈的阴魂旁边扫过去。
+        唰唰唰…
+        阴魂的气息极其恐怖，仿佛任何一个意念，都可以毁天灭地。
+        若是他想动这个阴差，只需要一个念头，就可以将阴差杀死一万次。
+        可是，他却没有动手。
+        这里是地府，若是随意杀害阴差，会导致罪孽加重。
+        因为杀个小喽喽，害自己在这地狱里多待上几百年，可不值得。
+        唰唰唰…
+        阴差拿着扫把，边走边扫，终于走到签到地点。
+        “叮！您在地狱十八层签到，获得‘混沌魔神枪’！”
+        青年名为李恒。
+        曾经是一位穿越者。
+        或者说，活着的时候，是穿越者。
+        现在的他，是一名地府阴差。
+        负责的是杂役工作。
+        唰唰唰…
+        扫把挥动，尘土飞扬。
+        从远处看去，巍峨的巨人，就像一座连接天地的柱子。
+        那扫地的阴差，如同地上爬行的蝼蚁。
+        巨人脚上一根汗毛，都如同大柱子一样，随意的拍打在阴差身上，都能要他小命。
+        李恒抬头望向巍峨挺立的巨人，使劲咽了下口水。
+        “什么时候，我才能成为这样的强者？”
+        “纵使死亡，仅剩灵魂，也能撼天动地！”
+        在地狱中，关押的都是非常恐怖的阴魂。
+        甚至有些阴魂，在死前是大帝之境。
+        就像刚才看到的那尊巨人，就是大帝级别的阴魂。
+        哪怕只是灵魂形态，一个念头，也能毁天灭地。
+        “呼～”
+        李恒吐了口浊气，握着扫把的手越攥越紧。
+        “快了…”
+        “一千年…”
+        “计划马上就能成了…”
+        “待我将地府所有地方都签到完，拿到所有奖励，就可以转世投胎了！”
+        “下一世，定要成为天地至强者！”
+        想到这里，瞳孔闪烁着耀眼的光彩。
+        上一世，刚穿越到修仙界的时候，并没有获得签到系统。
+        修炼三百多年，被仇人所杀，灵魂进入地府。
+        结果，在阎王殿接受审判时，开启签到系统。
+        说实话，这个系统开启的方式，实在是有点奇葩。
+        但是，李恒仔细一想，感觉这是一个千载难逢的机会。
+        因为他发现，在地府里面可以签到，拿到的奖励，放在系统空间内，可以带出地府。
+        也就是说，下一世投胎，自己也是可以拥有这些东西的。
+        想通这一点后，心中涌现出一个非常疯狂的计划。
+        那就是…
+        苟在地府签到！
+        将这里所有的签到奖励全部拿到手，再去转世投胎。
+        这样不就等于在起跑线上，领先别人一大截？
+        于是乎，李恒就在地府谋了个杂役阴差的职位。
+        以打扫地府为理由，将整个地府，包括十八层地狱，都游荡了一遍。
+        每打扫到一个地方，就在那个地方签到。
+        就这样，过去一千年的时间。
+        这一千年签到，能够获得多少奖励？
+        绝对可以用海量来形容。
+        系统每天都可以签到一次。
+        一年三百六十五次。
+        一千年…
+        便是三十六万五千次。
+        而且，在地狱签到，越到深处，奖励就越好。
+        这次签到后，脑海中响起提示音。
+        “叮！您已经在地府签到千年时间，在地府所有地点完成签到！您获得地府签到终极奖励，万古仙魔神体！”
+        万古仙魔神体，三千六百万种修仙体质中，最强神体。
+        李恒眉毛一挑，心中涌现出喜悦的情绪。
+        一千年的签到，不仅让他在地府拿到大量宝物，还得到万古最强神体。
+        这一切努力很值得。
+        “叮！请注意，想要融合万古仙魔神体，必须在胎儿时期，否则将无法融合成功。”
+        李恒微微点头。
+        许多强大的体质，在融合的时候都会有苛刻的要求。
+        万古仙魔神体的要求，只是在胎儿时期融合，倒也不算太过于苛刻。
+        等投胎的时候，选择融合这个体质就可以了。
+        “地府所有地点都签到过了…”
+        “看来…”
+        “是该去投胎了！”
+        李恒心中很是期待。
+        为了投胎的这一刻，已经准备千年时间。
+        就为的是给下一世做好准备。
+        在投胎前，就比别人提前准备一千年，绝对没人比他更强。
+        …
+        阎王殿。
+        阎王端坐在书案前，抬头看着眼前的青年。
+        “李恒，你真的准备卸去职位，去投胎了？”
+        “嗯。”李恒轻轻点头。
+        “好，这千年来，你为地府尽心尽职，从未出过差错…”阎王拿起一个册子，翻看着李恒千年来的记录。
+        加入地府，成为阴差，也并非永远都是阴差。
+        只要有心想去投胎，就可以选择卸掉职位，去转世轮回。
+        而且，身为阴差，能够积阴德，下辈子转世投胎，能够投个好人家。
+        阎王将册子合上，眼睛看向前面的青年。
+        “李恒，为地府做事一千年，积攒千年阴德。”
+        “这次投胎，你将会投进一个修仙世家！”
+        “只要你辛勤修炼，未来必将有一番成就！”
+        为地府做事千年，已经算是大阴德一件。
+        转世投胎，起点会比普通人高上许多。
+        “多谢阎王！”李恒双手合十，行了一礼。
+        心中则是窃喜。
+        原本就积攒了千年的签到奖励，再投胎个大户人家，下辈子，绝对可以在修仙路上走的更远。
+        “好了，卸去你这身阴差的行头，随着牛头马面去投胎吧。”阎王对着门口站着的牛头、马面使了个眼色。
+        “遵命！”牛头立刻应声，先一步走到大殿门口，对着外面指去。
+        “请吧，先随我去奈何桥，喝下孟婆汤。”
+        按照地府规矩，任何人想要去投胎，都要喝下孟婆汤，忘掉前世记忆。
+        身为阴差也不会例外。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -507,7 +613,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>绝命列车</t>
+          <t>地府签到千年,投胎气哭女帝全文</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,90 +624,6 @@
       <c r="I2" t="inlineStr">
         <is>
           <t>data/output/爽文/story_1/result.mp4</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>“两只老虎，两只老虎，谈恋爱，谈恋爱……”“两只都是公的，两只都是公的，真变态，真变态……”诺大的雷池区域，顿时回响起众人齐声大合唱的洪亮歌声！
-徐缺也是彻底地玩嗨了，仿佛此刻就是他的私人演唱会一样，完全是旁若无人大唱大吼道：“来啊！一起来啊！唱起来啊！嗨起来啊！不够响亮啊！让我看到你们的双手……”
-这还不够，徐缺极目眺望，现这次的雷池雷劫，只有修为比较高的异族才有资格站在雷池台下围观，而在雷池附近一座又一座的小山丘上，却还有着更多更加弱小的异族围观群众们。</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>爽文</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>story_2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>大屌灭世</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>已完成</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>data/output/爽文/story_2/result.mp4</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>吴承恩本人也没想到，西游记中竟然有如此低级的漏洞，看过西游记的人都知道，书中对于时间的设定很有意思，天上1天，地下一年，比如原著第四回曾介绍，孙悟空在天庭围观半月有余，可地上静过了十数年，但令人质疑的是，后来西天取经路上，孙悟空动不动便上天庭寻找救兵，期间也耽误了不少功夫，时间却未见有多少流逝，这其中究竟暗藏着怎样的玄机呢，首先根据小说中的说法，师徒五人取经共用14年，在凡人看来，这个过程简直太漫长了，可对于那帮神仙来说，一共也才过了两周的时间，但是我们不妨想想，取经期间，孙悟空到底请神仙帮过几次忙呢，那可就多到数不清了，因此我们就能够理解，而在神仙看来，孙悟空动不动就要上天庭，以观音菩萨为例，第14回中说道，观音第一次给孙悟空戴了一个紧箍咒，没过几天，龙王三太子就吃了唐僧的马，天上一日，地上一年的设定来看，基本是观音刚离开4分钟，孙悟空就来找他了，人间过了两月后，黑熊怪偷了加沙，也就是说观音菩萨回去四个小时后，被孙悟空叫走了，人间不过半年时间，唐僧一行人被困流沙河，观音刚回到南海不到半天，孙悟空就又过来了，观音菩萨估计也快疯了，这只猴子怎么又来找我了，是说在1天的时间内，观音菩萨为了这只猴跑了六趟，要是以神仙的视角来看，那就更有意思了，一位天兵天将刚在这大喊不好了，猴子杀上天宫了，猴子又被压在山下，怎么一年多又给放出来了，两周后怎么又成佛了，难不成是走后门吧，那么问题来了，这样的时间设定究竟有什么深意呢。</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>西游记</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>story_3</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>西游记的秘密</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>已完成</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>data/output/西游记/story_3/result.mp4</t>
         </is>
       </c>
     </row>
